--- a/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
+++ b/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H4" sqref="H4:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1345,7 +1345,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="6">
-        <v>10002</v>
+        <v>30001</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -1368,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="6">
-        <v>10003</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:8">
@@ -1392,7 +1392,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="6">
-        <v>10004</v>
+        <v>30003</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:8">
@@ -1418,7 +1418,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="6">
-        <v>10005</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:8">
@@ -1444,7 +1444,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="6">
-        <v>10006</v>
+        <v>30005</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:8">
@@ -1470,7 +1470,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="6">
-        <v>10007</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:8">
@@ -1496,7 +1496,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="6">
-        <v>10008</v>
+        <v>30007</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:8">
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="6">
-        <v>10009</v>
+        <v>30008</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1548,7 +1548,7 @@
         <v>28</v>
       </c>
       <c r="H12" s="6">
-        <v>10010</v>
+        <v>30009</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1574,7 +1574,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="6">
-        <v>10011</v>
+        <v>30010</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1600,7 +1600,7 @@
         <v>30</v>
       </c>
       <c r="H14" s="6">
-        <v>10012</v>
+        <v>30011</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1626,7 +1626,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="6">
-        <v>10013</v>
+        <v>30012</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1652,7 +1652,7 @@
         <v>32</v>
       </c>
       <c r="H16" s="6">
-        <v>10014</v>
+        <v>30013</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1678,7 +1678,7 @@
         <v>33</v>
       </c>
       <c r="H17" s="6">
-        <v>10015</v>
+        <v>30014</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1704,7 +1704,7 @@
         <v>34</v>
       </c>
       <c r="H18" s="6">
-        <v>10016</v>
+        <v>30015</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1730,7 +1730,7 @@
         <v>35</v>
       </c>
       <c r="H19" s="6">
-        <v>10017</v>
+        <v>30016</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1756,7 +1756,7 @@
         <v>36</v>
       </c>
       <c r="H20" s="6">
-        <v>10018</v>
+        <v>30017</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1782,7 +1782,7 @@
         <v>37</v>
       </c>
       <c r="H21" s="6">
-        <v>10019</v>
+        <v>30018</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1808,7 +1808,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="6">
-        <v>10020</v>
+        <v>30019</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1834,7 +1834,7 @@
         <v>39</v>
       </c>
       <c r="H23" s="6">
-        <v>10021</v>
+        <v>30020</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1860,7 +1860,7 @@
         <v>40</v>
       </c>
       <c r="H24" s="6">
-        <v>10022</v>
+        <v>30021</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1886,7 +1886,7 @@
         <v>41</v>
       </c>
       <c r="H25" s="6">
-        <v>10023</v>
+        <v>30022</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1912,7 +1912,7 @@
         <v>42</v>
       </c>
       <c r="H26" s="6">
-        <v>10024</v>
+        <v>30023</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="H27" s="6">
-        <v>10025</v>
+        <v>30024</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1964,7 +1964,7 @@
         <v>44</v>
       </c>
       <c r="H28" s="6">
-        <v>10026</v>
+        <v>30025</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -1990,7 +1990,7 @@
         <v>45</v>
       </c>
       <c r="H29" s="6">
-        <v>10027</v>
+        <v>30026</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -2016,7 +2016,7 @@
         <v>46</v>
       </c>
       <c r="H30" s="6">
-        <v>10028</v>
+        <v>30027</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -2042,7 +2042,7 @@
         <v>47</v>
       </c>
       <c r="H31" s="6">
-        <v>10029</v>
+        <v>30028</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -2068,7 +2068,7 @@
         <v>48</v>
       </c>
       <c r="H32" s="6">
-        <v>10030</v>
+        <v>30029</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -2094,7 +2094,7 @@
         <v>49</v>
       </c>
       <c r="H33" s="6">
-        <v>10031</v>
+        <v>30030</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="16.5" spans="1:8">
@@ -2120,7 +2120,7 @@
         <v>50</v>
       </c>
       <c r="H34" s="6">
-        <v>10032</v>
+        <v>30031</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="2:8">
@@ -2143,7 +2143,7 @@
         <v>52</v>
       </c>
       <c r="H35" s="6">
-        <v>10002</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="2:8">
@@ -2166,7 +2166,7 @@
         <v>54</v>
       </c>
       <c r="H36" s="6">
-        <v>10003</v>
+        <v>30003</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -2189,7 +2189,7 @@
         <v>55</v>
       </c>
       <c r="H37" s="6">
-        <v>10004</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -2304,7 +2304,7 @@
         <v>62</v>
       </c>
       <c r="H42" s="6">
-        <v>10300</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="43" spans="2:8">
@@ -2327,7 +2327,7 @@
         <v>64</v>
       </c>
       <c r="H43" s="6">
-        <v>10301</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -2350,7 +2350,7 @@
         <v>65</v>
       </c>
       <c r="H44" s="6">
-        <v>10302</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -2373,7 +2373,7 @@
         <v>66</v>
       </c>
       <c r="H45" s="6">
-        <v>10303</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -2396,7 +2396,7 @@
         <v>67</v>
       </c>
       <c r="H46" s="6">
-        <v>10304</v>
+        <v>30304</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -2419,7 +2419,7 @@
         <v>52</v>
       </c>
       <c r="H47" s="6">
-        <v>10002</v>
+        <v>30001</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -2442,7 +2442,7 @@
         <v>54</v>
       </c>
       <c r="H48" s="6">
-        <v>10003</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="49" spans="2:8">
@@ -2465,7 +2465,7 @@
         <v>55</v>
       </c>
       <c r="H49" s="6">
-        <v>10004</v>
+        <v>30003</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -2580,7 +2580,7 @@
         <v>52</v>
       </c>
       <c r="H54" s="6">
-        <v>10002</v>
+        <v>30001</v>
       </c>
     </row>
     <row r="55" spans="2:8">
@@ -2603,7 +2603,7 @@
         <v>54</v>
       </c>
       <c r="H55" s="6">
-        <v>10003</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="56" spans="2:8">
@@ -2626,7 +2626,7 @@
         <v>55</v>
       </c>
       <c r="H56" s="6">
-        <v>10004</v>
+        <v>30003</v>
       </c>
     </row>
     <row r="57" spans="2:8">
@@ -2741,7 +2741,7 @@
         <v>62</v>
       </c>
       <c r="H61" s="6">
-        <v>10300</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="62" spans="2:8">
@@ -2764,7 +2764,7 @@
         <v>64</v>
       </c>
       <c r="H62" s="6">
-        <v>10301</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -2787,7 +2787,7 @@
         <v>65</v>
       </c>
       <c r="H63" s="6">
-        <v>10302</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -2810,7 +2810,7 @@
         <v>66</v>
       </c>
       <c r="H64" s="6">
-        <v>10303</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="65" spans="2:8">
@@ -2833,7 +2833,7 @@
         <v>67</v>
       </c>
       <c r="H65" s="6">
-        <v>10304</v>
+        <v>30304</v>
       </c>
     </row>
     <row r="74" spans="2:8">

--- a/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
+++ b/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Match</t>
   </si>
   <si>
     <t>Map</t>
@@ -1228,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2219,7 +2222,7 @@
       <c r="B39" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="3">
         <v>5</v>
       </c>
       <c r="D39" s="6">
@@ -2228,11 +2231,11 @@
       <c r="E39" s="6">
         <v>1</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>58</v>
+      <c r="G39" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
@@ -2242,7 +2245,7 @@
       <c r="B40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="3">
         <v>6</v>
       </c>
       <c r="D40" s="6">
@@ -2251,10 +2254,10 @@
       <c r="E40" s="6">
         <v>1</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H40" s="6">
@@ -2265,20 +2268,20 @@
       <c r="B41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="6">
-        <v>200</v>
+      <c r="C41" s="3">
+        <v>7</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
       </c>
       <c r="E41" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="H41" s="6">
         <v>0</v>
@@ -2289,22 +2292,22 @@
         <v>51</v>
       </c>
       <c r="C42" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
       </c>
       <c r="E42" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>62</v>
       </c>
       <c r="H42" s="6">
-        <v>30300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8">
@@ -2312,7 +2315,7 @@
         <v>51</v>
       </c>
       <c r="C43" s="6">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
@@ -2324,10 +2327,10 @@
         <v>63</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H43" s="6">
-        <v>30301</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -2335,7 +2338,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="6">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -2344,13 +2347,13 @@
         <v>3</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H44" s="6">
-        <v>30302</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -2358,7 +2361,7 @@
         <v>51</v>
       </c>
       <c r="C45" s="6">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
@@ -2367,13 +2370,13 @@
         <v>3</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H45" s="6">
-        <v>30303</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -2381,7 +2384,7 @@
         <v>51</v>
       </c>
       <c r="C46" s="6">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
@@ -2390,44 +2393,44 @@
         <v>3</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H46" s="6">
-        <v>30304</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="6">
+        <v>304</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>3</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="6">
-        <v>1</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="H47" s="6">
-        <v>30001</v>
+        <v>30304</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
@@ -2436,21 +2439,21 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H48" s="6">
-        <v>30002</v>
+        <v>30001</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
@@ -2462,18 +2465,18 @@
         <v>53</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H49" s="6">
-        <v>30003</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" s="6">
         <v>1</v>
@@ -2482,21 +2485,21 @@
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H50" s="6">
-        <v>0</v>
+        <v>30003</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" s="6">
         <v>1</v>
@@ -2505,10 +2508,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
@@ -2516,10 +2519,10 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
@@ -2528,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>59</v>
@@ -2539,24 +2542,24 @@
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53" s="6">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="D53" s="6">
         <v>1</v>
       </c>
       <c r="E53" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="H53" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2565,30 +2568,30 @@
         <v>69</v>
       </c>
       <c r="C54" s="6">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D54" s="6">
         <v>1</v>
       </c>
       <c r="E54" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="6">
-        <v>30001</v>
+        <v>62</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="6">
         <v>1</v>
@@ -2597,21 +2600,21 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H55" s="6">
-        <v>30002</v>
+        <v>30001</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="6">
         <v>1</v>
@@ -2623,18 +2626,18 @@
         <v>53</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H56" s="6">
-        <v>30003</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="6">
         <v>1</v>
@@ -2643,21 +2646,21 @@
         <v>1</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H57" s="6">
-        <v>0</v>
+        <v>30003</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -2666,10 +2669,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H58" s="6">
         <v>0</v>
@@ -2677,10 +2680,10 @@
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C59" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" s="6">
         <v>1</v>
@@ -2689,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>59</v>
@@ -2700,59 +2703,59 @@
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C60" s="6">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="D60" s="6">
         <v>1</v>
       </c>
       <c r="E60" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="H60" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C61" s="6">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D61" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H61" s="6">
-        <v>30300</v>
+      <c r="H61" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C62" s="6">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D62" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" s="6">
         <v>3</v>
@@ -2761,89 +2764,103 @@
         <v>63</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H62" s="6">
-        <v>30301</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C63" s="6">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D63" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="6">
         <v>3</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H63" s="6">
-        <v>30302</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64" s="6">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D64" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64" s="6">
         <v>3</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H64" s="6">
-        <v>30303</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" s="6">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D65" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" s="6">
         <v>3</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H65" s="6">
+        <v>30303</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="6">
+        <v>404</v>
+      </c>
+      <c r="D66" s="6">
+        <v>7</v>
+      </c>
+      <c r="E66" s="6">
+        <v>3</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="6">
         <v>30304</v>
       </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="6"/>
@@ -2872,6 +2889,15 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
+++ b/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>OuterPort</t>
+    <t>Port</t>
   </si>
   <si>
     <t>##type</t>
@@ -97,78 +97,6 @@
     <t>BenchmarkClient6</t>
   </si>
   <si>
-    <t>BenchmarkClient7</t>
-  </si>
-  <si>
-    <t>BenchmarkClient8</t>
-  </si>
-  <si>
-    <t>BenchmarkClient9</t>
-  </si>
-  <si>
-    <t>BenchmarkClient10</t>
-  </si>
-  <si>
-    <t>BenchmarkClient11</t>
-  </si>
-  <si>
-    <t>BenchmarkClient12</t>
-  </si>
-  <si>
-    <t>BenchmarkClient13</t>
-  </si>
-  <si>
-    <t>BenchmarkClient14</t>
-  </si>
-  <si>
-    <t>BenchmarkClient15</t>
-  </si>
-  <si>
-    <t>BenchmarkClient16</t>
-  </si>
-  <si>
-    <t>BenchmarkClient17</t>
-  </si>
-  <si>
-    <t>BenchmarkClient18</t>
-  </si>
-  <si>
-    <t>BenchmarkClient19</t>
-  </si>
-  <si>
-    <t>BenchmarkClient20</t>
-  </si>
-  <si>
-    <t>BenchmarkClient21</t>
-  </si>
-  <si>
-    <t>BenchmarkClient22</t>
-  </si>
-  <si>
-    <t>BenchmarkClient23</t>
-  </si>
-  <si>
-    <t>BenchmarkClient24</t>
-  </si>
-  <si>
-    <t>BenchmarkClient25</t>
-  </si>
-  <si>
-    <t>BenchmarkClient26</t>
-  </si>
-  <si>
-    <t>BenchmarkClient27</t>
-  </si>
-  <si>
-    <t>BenchmarkClient28</t>
-  </si>
-  <si>
-    <t>BenchmarkClient29</t>
-  </si>
-  <si>
-    <t>BenchmarkClient30</t>
-  </si>
-  <si>
     <t>Localhost</t>
   </si>
   <si>
@@ -197,12 +125,6 @@
   </si>
   <si>
     <t>Map2</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robot01</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1231,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1348,14 +1270,14 @@
         <v>19</v>
       </c>
       <c r="H4" s="6">
-        <v>30001</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
       <c r="D5" s="6">
@@ -1364,22 +1286,20 @@
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="6">
-        <v>30002</v>
-      </c>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>3</v>
       </c>
       <c r="D6" s="6">
@@ -1388,24 +1308,20 @@
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="6">
-        <v>30003</v>
-      </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>4</v>
       </c>
       <c r="D7" s="6">
@@ -1414,24 +1330,20 @@
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="6">
-        <v>30004</v>
-      </c>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>5</v>
       </c>
       <c r="D8" s="6">
@@ -1440,24 +1352,20 @@
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6">
-        <v>30005</v>
-      </c>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" ht="16.5" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>6</v>
       </c>
       <c r="D9" s="6">
@@ -1466,24 +1374,20 @@
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="6">
-        <v>30006</v>
-      </c>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" ht="16.5" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>7</v>
       </c>
       <c r="D10" s="6">
@@ -1492,643 +1396,560 @@
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="6">
-        <v>30007</v>
-      </c>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="6">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="6">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:8">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="6">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:8">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:8">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:8">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6">
+        <v>300</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="6">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="2:8">
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6">
+        <v>301</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="6">
+        <v>30301</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="2:8">
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6">
+        <v>302</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="6">
+        <v>30302</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:8">
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="6">
+        <v>303</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="6">
+        <v>30303</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="2:8">
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="6">
+        <v>304</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="6">
+        <v>30304</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="2:8">
+      <c r="B23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="6">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="2:8">
+      <c r="B24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="6">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="2:8">
+      <c r="B25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="6">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="2:8">
+      <c r="B26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="6">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="6">
-        <v>30008</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="6">
-        <v>30009</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="6">
-        <v>30010</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3">
-        <v>11</v>
-      </c>
-      <c r="D14" s="6">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="2:8">
+      <c r="B27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="6">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="2:8">
+      <c r="B28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="2:8">
+      <c r="B29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="6">
+        <v>14</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="2:8">
+      <c r="B30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="H14" s="6">
-        <v>30011</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="D30" s="6">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="6">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="2:8">
+      <c r="B31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="6">
         <v>31</v>
       </c>
-      <c r="H15" s="6">
-        <v>30012</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6">
-        <v>13</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="D31" s="6">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="6">
+        <v>30301</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="2:8">
+      <c r="B32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="6">
         <v>32</v>
       </c>
-      <c r="H16" s="6">
-        <v>30013</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3">
-        <v>14</v>
-      </c>
-      <c r="D17" s="6">
-        <v>14</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="D32" s="6">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="6">
+        <v>30302</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="2:8">
+      <c r="B33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="6">
         <v>33</v>
       </c>
-      <c r="H17" s="6">
-        <v>30014</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6">
-        <v>15</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="D33" s="6">
+        <v>3</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="6">
+        <v>30303</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="2:8">
+      <c r="B34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="6">
         <v>34</v>
       </c>
-      <c r="H18" s="6">
-        <v>30015</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6">
-        <v>16</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="6">
-        <v>30016</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3">
-        <v>17</v>
-      </c>
-      <c r="D20" s="6">
-        <v>17</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="6">
-        <v>30017</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3">
-        <v>18</v>
-      </c>
-      <c r="D21" s="6">
-        <v>18</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="6">
-        <v>30018</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3">
-        <v>19</v>
-      </c>
-      <c r="D22" s="6">
-        <v>19</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="D34" s="6">
+        <v>3</v>
+      </c>
+      <c r="E34" s="6">
+        <v>3</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="6">
-        <v>30019</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3">
-        <v>20</v>
-      </c>
-      <c r="D23" s="6">
-        <v>20</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="6">
-        <v>30020</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3">
-        <v>21</v>
-      </c>
-      <c r="D24" s="6">
-        <v>21</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6">
-        <v>30021</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="3">
-        <v>22</v>
-      </c>
-      <c r="D25" s="6">
-        <v>22</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="6">
-        <v>30022</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="3">
-        <v>23</v>
-      </c>
-      <c r="D26" s="6">
-        <v>23</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="G34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="6">
-        <v>30023</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3">
-        <v>24</v>
-      </c>
-      <c r="D27" s="6">
-        <v>24</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="6">
-        <v>30024</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="3">
-        <v>25</v>
-      </c>
-      <c r="D28" s="6">
-        <v>25</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="6">
-        <v>30025</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="3">
-        <v>26</v>
-      </c>
-      <c r="D29" s="6">
-        <v>26</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="6">
-        <v>30026</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="3">
-        <v>27</v>
-      </c>
-      <c r="D30" s="6">
-        <v>27</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="6">
-        <v>30027</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="3">
-        <v>28</v>
-      </c>
-      <c r="D31" s="6">
-        <v>28</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="6">
-        <v>30028</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="3">
-        <v>29</v>
-      </c>
-      <c r="D32" s="6">
-        <v>29</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="6">
-        <v>30029</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="3">
-        <v>30</v>
-      </c>
-      <c r="D33" s="6">
-        <v>30</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="6">
-        <v>30030</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="3">
-        <v>31</v>
-      </c>
-      <c r="D34" s="6">
-        <v>31</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="H34" s="6">
-        <v>30031</v>
+        <v>30304</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="2:8">
       <c r="B35" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -2140,10 +1961,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H35" s="6">
         <v>30002</v>
@@ -2151,7 +1972,7 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="2:8">
       <c r="B36" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C36" s="6">
         <v>2</v>
@@ -2162,19 +1983,19 @@
       <c r="E36" s="6">
         <v>1</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>54</v>
+      <c r="F36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H36" s="6">
         <v>30003</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" s="2" customFormat="1" spans="2:8">
       <c r="B37" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C37" s="6">
         <v>3</v>
@@ -2185,19 +2006,19 @@
       <c r="E37" s="6">
         <v>1</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>55</v>
+      <c r="F37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H37" s="6">
         <v>30004</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" s="2" customFormat="1" spans="2:8">
       <c r="B38" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C38" s="6">
         <v>4</v>
@@ -2208,21 +2029,19 @@
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="F38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="2:8">
       <c r="B39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="3">
+        <v>44</v>
+      </c>
+      <c r="C39" s="6">
         <v>5</v>
       </c>
       <c r="D39" s="6">
@@ -2232,20 +2051,18 @@
         <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
+        <v>35</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="2:8">
       <c r="B40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="3">
+        <v>44</v>
+      </c>
+      <c r="C40" s="6">
         <v>6</v>
       </c>
       <c r="D40" s="6">
@@ -2255,648 +2072,163 @@
         <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+        <v>36</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="2:8">
       <c r="B41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="3">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="C41" s="6">
+        <v>400</v>
       </c>
       <c r="D41" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H41" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="2:8">
       <c r="B42" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C42" s="6">
-        <v>200</v>
+        <v>401</v>
       </c>
       <c r="D42" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E42" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H42" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
+        <v>30301</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="2:8">
       <c r="B43" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C43" s="6">
-        <v>300</v>
+        <v>402</v>
       </c>
       <c r="D43" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43" s="6">
         <v>3</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H43" s="6">
-        <v>30300</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C44" s="6">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="D44" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="H44" s="6">
-        <v>30301</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C45" s="6">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="D45" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E45" s="6">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H45" s="6">
-        <v>30302</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="6">
-        <v>303</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="6">
-        <v>3</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="6">
-        <v>30303</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="6">
-        <v>304</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" s="6">
-        <v>3</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" s="6">
         <v>30304</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="6">
-        <v>1</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
-      <c r="E48" s="6">
-        <v>1</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="6">
-        <v>30001</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="6">
-        <v>2</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="6">
-        <v>30002</v>
-      </c>
-    </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="6">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H50" s="6">
-        <v>30003</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="6">
-        <v>4</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="6">
-        <v>5</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="6">
-        <v>6</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="6">
-        <v>1</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="6">
-        <v>200</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="6">
-        <v>2</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="6">
-        <v>1</v>
-      </c>
-      <c r="D55" s="6">
-        <v>1</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H55" s="6">
-        <v>30001</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="6">
-        <v>2</v>
-      </c>
-      <c r="D56" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H56" s="6">
-        <v>30002</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="6">
-        <v>3</v>
-      </c>
-      <c r="D57" s="6">
-        <v>1</v>
-      </c>
-      <c r="E57" s="6">
-        <v>1</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" s="6">
-        <v>30003</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="6">
-        <v>4</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1</v>
-      </c>
-      <c r="E58" s="6">
-        <v>1</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="6">
-        <v>5</v>
-      </c>
-      <c r="D59" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="6">
-        <v>6</v>
-      </c>
-      <c r="D60" s="6">
-        <v>1</v>
-      </c>
-      <c r="E60" s="6">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="6">
-        <v>200</v>
-      </c>
-      <c r="D61" s="6">
-        <v>1</v>
-      </c>
-      <c r="E61" s="6">
-        <v>2</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="6">
-        <v>400</v>
-      </c>
-      <c r="D62" s="6">
-        <v>3</v>
-      </c>
-      <c r="E62" s="6">
-        <v>3</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H62" s="6">
-        <v>30300</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="6">
-        <v>401</v>
-      </c>
-      <c r="D63" s="6">
-        <v>4</v>
-      </c>
-      <c r="E63" s="6">
-        <v>3</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H63" s="6">
-        <v>30301</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="6">
-        <v>402</v>
-      </c>
-      <c r="D64" s="6">
-        <v>5</v>
-      </c>
-      <c r="E64" s="6">
-        <v>3</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H64" s="6">
-        <v>30302</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="6">
-        <v>403</v>
-      </c>
-      <c r="D65" s="6">
-        <v>6</v>
-      </c>
-      <c r="E65" s="6">
-        <v>3</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H65" s="6">
-        <v>30303</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="6">
-        <v>404</v>
-      </c>
-      <c r="D66" s="6">
-        <v>7</v>
-      </c>
-      <c r="E66" s="6">
-        <v>3</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H66" s="6">
-        <v>30304</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
+++ b/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -154,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -189,34 +202,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -230,14 +215,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,6 +254,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,7 +319,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,49 +361,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,121 +499,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,21 +552,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,6 +584,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,148 +655,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -808,52 +821,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1155,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1710,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -1733,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>

--- a/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
+++ b/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
@@ -1168,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -1766,10 +1766,10 @@
         <v>43</v>
       </c>
       <c r="C26" s="6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D26" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
@@ -1787,19 +1787,19 @@
         <v>43</v>
       </c>
       <c r="C27" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -1808,10 +1808,10 @@
         <v>43</v>
       </c>
       <c r="C28" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D28" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="6"/>
     </row>
@@ -1829,19 +1829,19 @@
         <v>43</v>
       </c>
       <c r="C29" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D29" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H29" s="6"/>
     </row>
@@ -1850,10 +1850,10 @@
         <v>43</v>
       </c>
       <c r="C30" s="6">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D30" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -1873,10 +1873,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="6">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="D31" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
@@ -1896,10 +1896,10 @@
         <v>43</v>
       </c>
       <c r="C32" s="6">
-        <v>32</v>
+        <v>302</v>
       </c>
       <c r="D32" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="6">
         <v>3</v>
@@ -1919,10 +1919,10 @@
         <v>43</v>
       </c>
       <c r="C33" s="6">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="D33" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="6">
         <v>3</v>
@@ -1942,10 +1942,10 @@
         <v>43</v>
       </c>
       <c r="C34" s="6">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="D34" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -2161,7 +2161,7 @@
         <v>30302</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" s="2" customFormat="1" spans="2:8">
       <c r="B44" s="6" t="s">
         <v>44</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>30303</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" s="2" customFormat="1" spans="2:8">
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
@@ -2206,6 +2206,20 @@
       <c r="H45" s="6">
         <v>30304</v>
       </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="4:8">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="4:8">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="6"/>

--- a/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
+++ b/Design/Excel/ET/Datas/StartConfig/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1166,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H10 H14:H17 H26:H29 H38:H40 A4:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1180,8 +1180,7 @@
     <col min="6" max="6" width="32.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
@@ -2206,56 +2205,6 @@
       <c r="H45" s="6">
         <v>30304</v>
       </c>
-    </row>
-    <row r="46" s="2" customFormat="1" spans="4:8">
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" s="2" customFormat="1" spans="4:8">
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
